--- a/va_facility_data_2025-02-20/Calais VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Calais%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Calais VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Calais%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re5ae6b3affe44ab0a2cd12ff0f3b2478"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re8a7df67a0b148408fdde31b391c0c1b"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R68d7eb8c6c87428f9709a26ab51cd670"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R6594917029394d08b752d8b4984702fa"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfe87ab0bfda44f37855d7ba984849e36"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4b012ce72de8486dbcd0776dfa9ab968"/>
   </x:sheets>
 </x:workbook>
 </file>
